--- a/xlsx/学习型组织_intext.xlsx
+++ b/xlsx/学习型组织_intext.xlsx
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E5%AD%B8%E7%BF%92</t>
   </si>
   <si>
-    <t>組織學習</t>
+    <t>组织学习</t>
   </si>
   <si>
     <t>政策_政策_管理_学习型组织</t>
